--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3816.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3816.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3816</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Azhar Ali</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3293</t>
+          <t>3293</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3376</t>
+          <t>3376</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3379</t>
+          <t>3379</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3383</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3408</t>
+          <t>3408</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3409</t>
+          <t>3409</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3410</t>
+          <t>3410</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3411</t>
+          <t>3411</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3413</t>
+          <t>3413</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3439</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3441</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1076,7 +1141,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3443</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1128,7 +1193,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3455</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1180,7 +1245,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3456</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1232,7 +1297,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1284,7 +1349,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1336,7 +1401,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1388,7 +1453,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3801</t>
+          <t>3801</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1440,7 +1505,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3802</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1492,7 +1557,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3803</t>
+          <t>3803</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1544,7 +1609,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3814</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1596,7 +1661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3819</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1648,7 +1713,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3820</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1700,7 +1765,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1752,7 +1817,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3822</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1804,7 +1869,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3836</t>
+          <t>3836</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1856,7 +1921,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3837</t>
+          <t>3837</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1908,7 +1973,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1960,7 +2025,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2012,7 +2077,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2064,7 +2129,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2116,7 +2181,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2168,7 +2233,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2220,7 +2285,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2272,7 +2337,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2324,7 +2389,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2376,7 +2441,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2428,7 +2493,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2480,7 +2545,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2532,7 +2597,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2584,7 +2649,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2636,7 +2701,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2688,7 +2753,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2740,7 +2805,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2792,7 +2857,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2844,7 +2909,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2896,7 +2961,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2948,7 +3013,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3000,7 +3065,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3052,7 +3117,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3104,7 +3169,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3156,7 +3221,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3208,7 +3273,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3247,7 +3312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3269,7 +3334,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3306,7 +3371,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3439</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3343,7 +3408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3441</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3380,7 +3445,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3443</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3417,7 +3482,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3454,7 +3519,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3491,7 +3556,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3528,7 +3593,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3565,7 +3630,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3837</t>
+          <t>3837</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3602,7 +3667,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3639,7 +3704,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3676,7 +3741,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3713,7 +3778,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3750,7 +3815,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3787,7 +3852,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3813,6 +3878,603 @@
       <c r="G15" t="inlineStr">
         <is>
           <t>0/27</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3921</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.30%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3925</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>31.54%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3926</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3928</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.73%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3930</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3932</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10.86%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3939</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3943</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2.67%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3944</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.79%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3972</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>13.64%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3977</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.62%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.92%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4034</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.49%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4037</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4044</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14.35%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4045</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>35.35%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4050</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4103</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3.61%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4104</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.44%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4105</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3816.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3816.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3816.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3816.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3884,601 +3883,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3921</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.30%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3925</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>31.54%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3926</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3928</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.73%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3930</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3932</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10.86%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3939</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3943</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.67%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3944</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>32.79%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3972</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>13.64%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3977</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.62%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3981</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.92%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4034</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>30.49%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4037</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4044</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>14.35%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4045</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>35.35%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4050</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4103</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.61%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4104</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.44%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4105</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>